--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
   <si>
     <t>ID Caso Prueba</t>
   </si>
@@ -210,13 +210,37 @@
   </si>
   <si>
     <t xml:space="preserve">PARA TODOS LOS FORMULARIOS EN EL MARGEN SUPERIOR IZQUIERDO SE DEBE MOSTRAR UN TITULO DESCRIPTIVO Y NO EL NOMBRE DEL FORMULARIO </t>
+  </si>
+  <si>
+    <t>RESUELTO</t>
+  </si>
+  <si>
+    <t>Editar : cuando graba debe volver al listado</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Listado Conceptos &gt; Boton Cancelar</t>
+  </si>
+  <si>
+    <t>Debe volver al listado</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Edicion</t>
+  </si>
+  <si>
+    <t>Parametricas &gt;  Agregar</t>
+  </si>
+  <si>
+    <t>MAS INFO no va porque me muestra los mismos datos del formulario</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; MAS INFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +259,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -300,12 +332,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -379,6 +413,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -393,7 +448,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
+          <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -407,49 +462,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -773,15 +800,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
@@ -850,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -873,13 +900,15 @@
         <v>45593</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45601</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -931,9 +960,11 @@
         <v>45593</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45601</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
@@ -989,9 +1020,11 @@
         <v>45593</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45601</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
@@ -1018,9 +1051,11 @@
         <v>45593</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45601</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
@@ -1045,9 +1080,11 @@
         <v>45593</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45601</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
@@ -1072,9 +1109,11 @@
         <v>45593</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45601</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
@@ -1128,9 +1167,11 @@
         <v>45593</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="2">
+        <v>45601</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
@@ -1157,56 +1198,42 @@
         <v>45593</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45601</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45593</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1215,21 +1242,23 @@
         <v>45593</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I16" s="6">
+        <v>45604</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1241,59 +1270,59 @@
         <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1302,33 +1331,35 @@
         <v>45593</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I19" s="6">
+        <v>45604</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
@@ -1339,19 +1370,19 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1360,21 +1391,23 @@
         <v>45593</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I21" s="6">
+        <v>45604</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>19</v>
+      <c r="A22" s="3">
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1386,94 +1419,80 @@
         <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2">
-        <v>45594</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I24" s="6">
+        <v>45604</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
@@ -1483,26 +1502,26 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>23</v>
+      <c r="A26" s="3">
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
@@ -1512,14 +1531,14 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3">
-        <v>24</v>
+      <c r="A27" s="1">
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1531,82 +1550,52 @@
         <v>10</v>
       </c>
       <c r="G27" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I27" s="6">
+        <v>45604</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2">
-        <v>45594</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="1"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2">
-        <v>45594</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
-        <v>27</v>
+      <c r="A30" s="3">
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -1629,19 +1618,19 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
@@ -1658,19 +1647,19 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1686,14 +1675,14 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="3">
-        <v>30</v>
+      <c r="A33" s="1">
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -1716,19 +1705,19 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
@@ -1745,13 +1734,13 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -1774,13 +1763,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -1802,92 +1791,204 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
+      <c r="A37" s="1">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="1"/>
+      <c r="A38" s="3">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="1"/>
+      <c r="A39" s="3">
+        <v>29</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="1"/>
+      <c r="A40" s="3">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="1"/>
+      <c r="A41" s="3">
+        <v>31</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="1"/>
+      <c r="A42" s="3">
+        <v>32</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
+      <c r="A43" s="3">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
@@ -1931,105 +2032,136 @@
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
     </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="D4:D53">
+    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D46">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="E4:E53">
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E46">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="RESUELTO">
+  <conditionalFormatting sqref="H4:H53">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H46">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D36">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E36">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H36">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E53">
       <formula1>"ALTA,MEDIA,BAJA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J46 F4:F46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J53 F4:F53">
       <formula1>"vuriarte,gabrielalopez,gcassulo,efrontera"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H53">
       <formula1>"ABIERTO,RESUELTO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
   <si>
     <t>ID Caso Prueba</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Parametricas &gt; Tipos Categorias &gt; Listado</t>
   </si>
   <si>
-    <t>El listado tiene 2 campos que dice Codigó debe decir Código</t>
-  </si>
-  <si>
     <t>Parametricas &gt; Tipos Categorias &gt; Agregar</t>
   </si>
   <si>
@@ -234,13 +231,28 @@
   </si>
   <si>
     <t>Parametricas &gt; MAS INFO</t>
+  </si>
+  <si>
+    <t>Los nombres de columnas del listado deben ser: CÓDIGO CATEGORÍA PCIA / CÓDIGO CATEGORÍA MGP / DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>gabrielalopez</t>
+  </si>
+  <si>
+    <t>Si hay registros Vigente = N no los muestra en el listado</t>
+  </si>
+  <si>
+    <t>Las etiquetas de los campos deben ser: Cód. Categoría PCIA. (*) / Cód. Categoría MGP (*) / Descripción (*) / Vigente (*)</t>
+  </si>
+  <si>
+    <t>Cuando no se completa algún campo obligatorio, en el cartel que sale debe mostrar los nombres de los campos tal como están en el formulario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -334,12 +346,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -357,6 +372,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -378,6 +407,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -399,6 +449,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -413,7 +484,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
+          <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -427,56 +498,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -512,6 +534,14 @@
       <color rgb="FFDEA5A2"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -558,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,9 +620,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,6 +655,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,30 +831,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -831,9 +863,9 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -842,7 +874,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -877,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -900,7 +932,7 @@
         <v>45593</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2">
         <v>45601</v>
@@ -908,7 +940,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -937,7 +969,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -960,7 +992,7 @@
         <v>45593</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2">
         <v>45601</v>
@@ -968,7 +1000,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -997,7 +1029,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1020,7 +1052,7 @@
         <v>45593</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2">
         <v>45601</v>
@@ -1028,7 +1060,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1051,7 +1083,7 @@
         <v>45593</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2">
         <v>45601</v>
@@ -1059,7 +1091,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1080,7 +1112,7 @@
         <v>45593</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2">
         <v>45601</v>
@@ -1088,7 +1120,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1109,7 +1141,7 @@
         <v>45593</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2">
         <v>45601</v>
@@ -1117,7 +1149,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1146,7 +1178,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1167,7 +1199,7 @@
         <v>45593</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2">
         <v>45601</v>
@@ -1175,7 +1207,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1198,7 +1230,7 @@
         <v>45593</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2">
         <v>45601</v>
@@ -1206,7 +1238,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1219,7 +1251,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1242,7 +1274,7 @@
         <v>45593</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="6">
         <v>45604</v>
@@ -1250,15 +1282,15 @@
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1279,15 +1311,15 @@
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1340,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1331,7 +1363,7 @@
         <v>45593</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="6">
         <v>45604</v>
@@ -1339,12 +1371,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
@@ -1368,7 +1400,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1391,7 +1423,7 @@
         <v>45593</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="6">
         <v>45604</v>
@@ -1399,15 +1431,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1428,7 +1460,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1441,7 +1473,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1464,7 +1496,7 @@
         <v>45593</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="6">
         <v>45604</v>
@@ -1472,7 +1504,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1501,7 +1533,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1530,7 +1562,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1553,7 +1585,7 @@
         <v>45593</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="6">
         <v>45604</v>
@@ -1561,7 +1593,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1574,7 +1606,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1587,7 +1619,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>20</v>
       </c>
@@ -1616,7 +1648,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>21</v>
       </c>
@@ -1645,7 +1677,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -1674,7 +1706,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -1703,7 +1735,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>24</v>
       </c>
@@ -1732,7 +1764,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>25</v>
       </c>
@@ -1761,7 +1793,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>26</v>
       </c>
@@ -1790,7 +1822,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>27</v>
       </c>
@@ -1819,7 +1851,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>28</v>
       </c>
@@ -1848,7 +1880,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>29</v>
       </c>
@@ -1877,7 +1909,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>30</v>
       </c>
@@ -1906,56 +1938,38 @@
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="3">
-        <v>31</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2">
-        <v>45594</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="3">
-        <v>32</v>
-      </c>
+    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>58</v>
+      <c r="C42" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2">
-        <v>45594</v>
+        <v>73</v>
+      </c>
+      <c r="G42" s="6">
+        <v>45604</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>14</v>
@@ -1964,15 +1978,13 @@
       <c r="J42" s="1"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3">
-        <v>33</v>
-      </c>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -1981,10 +1993,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2">
-        <v>45594</v>
+        <v>73</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45604</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>14</v>
@@ -1993,46 +2005,88 @@
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2045,7 +2099,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2058,7 +2112,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2071,7 +2125,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2084,7 +2138,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2097,7 +2151,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2110,7 +2164,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2124,34 +2178,64 @@
       <c r="K53" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D53">
-    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="D4:D41 D47:D53">
+    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E53">
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="E4:E41 E47:E53">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H53">
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="RESUELTO">
+  <conditionalFormatting sqref="H4:H41 H47:H53">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D46">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E46">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H46">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -2171,12 +2255,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="81">
   <si>
     <t>ID Caso Prueba</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Boton Mas Info : me saca del sistema. Debe decir Editar e ir al formulario de Edicion</t>
   </si>
   <si>
-    <t>Parametricas &gt; Listado Conceptos &gt; Boton Agregar</t>
-  </si>
-  <si>
     <t>Titulo : Sacar Paso 1</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Parametricas &gt; Carácter de Revista &gt; Agregar</t>
   </si>
   <si>
-    <t>El titulo debe decir Alta Carácter de Revista</t>
-  </si>
-  <si>
     <t>Sacar el campo Vigente del formulario y setearlo con S en el Alta</t>
   </si>
   <si>
@@ -215,18 +209,9 @@
     <t>Editar : cuando graba debe volver al listado</t>
   </si>
   <si>
-    <t>Parametricas &gt; Listado Conceptos &gt; Boton Cancelar</t>
-  </si>
-  <si>
     <t>Debe volver al listado</t>
   </si>
   <si>
-    <t>Parametricas &gt; Edicion</t>
-  </si>
-  <si>
-    <t>Parametricas &gt;  Agregar</t>
-  </si>
-  <si>
     <t>MAS INFO no va porque me muestra los mismos datos del formulario</t>
   </si>
   <si>
@@ -246,13 +231,40 @@
   </si>
   <si>
     <t>Cuando no se completa algún campo obligatorio, en el cartel que sale debe mostrar los nombres de los campos tal como están en el formulario</t>
+  </si>
+  <si>
+    <t>Los nombres de columnas del listado deben ser: CÓDIGO CONCEPTO PCIA / CÓDIGO CONCEPTO MGP / DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Conceptos &gt; Agregar</t>
+  </si>
+  <si>
+    <t>Las etiquetas de los campos deben ser: Cód. Concepto  PCIA. (*) / Cód. Concepto MGP (*) / Descripción (*) / Vigente (debe estar chequeado, ya que es un alta)</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Conceptos &gt; Agregar - Cancelar</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Conceptos &gt; Editar</t>
+  </si>
+  <si>
+    <t>Los nombres de columnas del listado deben ser: COD CARÁCTER REVISTA PCIA / COD CARÁCTER REVISTA MGP / DESCRIPCIÓN/ VIGENTE</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Carácter de Revista &gt; Editar</t>
+  </si>
+  <si>
+    <t>Revisar los campos Univocos con el vigente</t>
+  </si>
+  <si>
+    <t>Los nombres de columnas del listado deben ser: COD TIPO ESTABLECIMIENTO /  DESCRIPCIÓN/ VIGENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -331,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -349,12 +367,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -372,6 +399,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -407,6 +455,181 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -443,6 +666,97 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,10 +934,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,7 +968,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -831,30 +1143,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -863,9 +1175,9 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -874,7 +1186,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -909,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -932,7 +1244,7 @@
         <v>45593</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2">
         <v>45601</v>
@@ -940,7 +1252,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -969,7 +1281,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -992,7 +1304,7 @@
         <v>45593</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2">
         <v>45601</v>
@@ -1000,7 +1312,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1029,7 +1341,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1052,7 +1364,7 @@
         <v>45593</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2">
         <v>45601</v>
@@ -1060,7 +1372,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1083,7 +1395,7 @@
         <v>45593</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2">
         <v>45601</v>
@@ -1091,7 +1403,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1112,7 +1424,7 @@
         <v>45593</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2">
         <v>45601</v>
@@ -1120,7 +1432,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1141,7 +1453,7 @@
         <v>45593</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2">
         <v>45601</v>
@@ -1149,7 +1461,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1178,7 +1490,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1199,7 +1511,7 @@
         <v>45593</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2">
         <v>45601</v>
@@ -1207,7 +1519,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1230,7 +1542,7 @@
         <v>45593</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2">
         <v>45601</v>
@@ -1238,148 +1550,130 @@
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45593</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="6">
-        <v>45604</v>
-      </c>
+    <row r="15" spans="1:11" s="12" customFormat="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2">
+        <v>45593</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="6">
         <v>45604</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="27.75" customHeight="1">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <v>45604</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="2">
-        <v>45593</v>
+      <c r="G19" s="6">
+        <v>45604</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="6">
-        <v>45604</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1396,129 +1690,143 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="6">
-        <v>45604</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2">
+        <v>45593</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="6">
         <v>45604</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45604</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1">
       <c r="A24" s="3">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
-        <v>45593</v>
+      <c r="G24" s="6">
+        <v>45604</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="6">
-        <v>45604</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1527,33 +1835,35 @@
         <v>45593</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="I25" s="6">
+        <v>45604</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="27.75" customHeight="1">
       <c r="A26" s="3">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="2">
-        <v>45593</v>
+      <c r="G26" s="6">
+        <v>45604</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
@@ -1562,15 +1872,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1582,19 +1892,17 @@
         <v>10</v>
       </c>
       <c r="G27" s="2">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="6">
-        <v>45604</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
@@ -1602,44 +1910,62 @@
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="3"/>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45593</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="6">
+        <v>45604</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="28.5" customHeight="1">
       <c r="A30" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="2">
-        <v>45594</v>
+      <c r="G30" s="6">
+        <v>45604</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>14</v>
@@ -1648,27 +1974,27 @@
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="2">
-        <v>45594</v>
+      <c r="G31" s="6">
+        <v>45604</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>14</v>
@@ -1677,15 +2003,15 @@
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1697,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>14</v>
@@ -1706,15 +2032,15 @@
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -1726,24 +2052,26 @@
         <v>10</v>
       </c>
       <c r="G33" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="I33" s="6">
+        <v>45604</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>24</v>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -1754,66 +2082,50 @@
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="2">
-        <v>45594</v>
+      <c r="G34" s="6">
+        <v>45604</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2">
-        <v>45594</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="3"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="28.5" customHeight="1">
       <c r="A36" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="2">
-        <v>45594</v>
+      <c r="G36" s="6">
+        <v>45608</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>14</v>
@@ -1822,15 +2134,15 @@
       <c r="J36" s="1"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>27</v>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -1845,33 +2157,35 @@
         <v>45594</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="I37" s="6">
+        <v>45604</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="2">
-        <v>45594</v>
+      <c r="G38" s="6">
+        <v>45604</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>14</v>
@@ -1880,21 +2194,21 @@
       <c r="J38" s="1"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
@@ -1903,27 +2217,29 @@
         <v>45594</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="I39" s="6">
+        <v>45604</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -1938,53 +2254,59 @@
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="3"/>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="6">
+        <v>45604</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="6">
-        <v>45604</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+    <row r="42" spans="1:11" s="12" customFormat="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
+        <v>33</v>
+      </c>
       <c r="B43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -1993,10 +2315,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="6">
-        <v>45604</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45594</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>14</v>
@@ -2005,25 +2327,27 @@
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
+        <v>34</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="6">
-        <v>45604</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45594</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>14</v>
@@ -2032,52 +2356,40 @@
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="6">
-        <v>45604</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
+        <v>35</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="6">
-        <v>45604</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45594</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>14</v>
@@ -2086,166 +2398,400 @@
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="1"/>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="1"/>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>37</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="1"/>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
+        <v>38</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="1"/>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3">
+        <v>39</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="30">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3"/>
     </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="30">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="30">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D41 D47:D53">
-    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="D4:D63">
+    <cfRule type="containsText" dxfId="12" priority="62" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="11" priority="63" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="10" priority="64" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E41 E47:E53">
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="E4:E63">
+    <cfRule type="containsText" dxfId="9" priority="56" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="8" priority="57" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="7" priority="58" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H41 H47:H53">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="RESUELTO">
+  <conditionalFormatting sqref="H4:H63">
+    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="5" priority="52" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D46">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E46">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H46">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E63">
       <formula1>"ALTA,MEDIA,BAJA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J53 F4:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F63 J4:J63">
       <formula1>"vuriarte,gabrielalopez,gcassulo,efrontera"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H63">
       <formula1>"ABIERTO,RESUELTO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2255,12 +2801,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="95">
   <si>
     <t>ID Caso Prueba</t>
   </si>
@@ -161,33 +161,12 @@
     <t>Parametricas &gt; Establecimiento &gt; Listado</t>
   </si>
   <si>
-    <t>Boton Mas Info: Debe decir Editar e ir al formulario de Edicion</t>
-  </si>
-  <si>
     <t>Parametricas &gt; Establecimiento &gt; Agregar</t>
   </si>
   <si>
-    <t>Me lleva al Alta de Personas</t>
-  </si>
-  <si>
-    <t>Parametricas &gt; Tipos Funciones &gt; Listado</t>
-  </si>
-  <si>
-    <t>Boton Mas Info debe decir Editar e ir al formulario de Edicion</t>
-  </si>
-  <si>
-    <t>Parametricas &gt; Tipos Funciones &gt; Agregar</t>
-  </si>
-  <si>
     <t>Parametricas &gt; Tipos Liquidaciones &gt; Listado</t>
   </si>
   <si>
-    <t>El listado muestra 2 campos vacios sin titulo ni datos</t>
-  </si>
-  <si>
-    <t>Boton Mas Info : Debe decir Editar e ir al formulario de Edicion</t>
-  </si>
-  <si>
     <t>Parametricas &gt; Tipos Liquidaciones &gt; Agregar</t>
   </si>
   <si>
@@ -258,13 +237,83 @@
   </si>
   <si>
     <t>Los nombres de columnas del listado deben ser: COD TIPO ESTABLECIMIENTO /  DESCRIPCIÓN/ VIGENTE</t>
+  </si>
+  <si>
+    <t>Agregar columna VIGENTE. Que muestre SI o NO (en vez de S o N)</t>
+  </si>
+  <si>
+    <t>La columna donde están los botones "Editar" no debe tener las flechitas para ordenar</t>
+  </si>
+  <si>
+    <t>Las etiquetas de los campos deben ser: Cód. Categoría PCIA. (*) / Cód. Categoría MGP (*) / Descripción (*)</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Tipos Categorias &gt; Editar</t>
+  </si>
+  <si>
+    <t>Cuando no se completa algún campo obligatorio, en el cartel que sale debe mostrar los nombres de los campos tal como están en el formulario (por ejemplo si no se completa el campo "Descripción" muestra "descripcion" actualmente y debería mostrar "Descripción")</t>
+  </si>
+  <si>
+    <t>La etiqueta del campo debe ser "Descripción (*)"</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Tipos de Funciones &gt; Listado</t>
+  </si>
+  <si>
+    <t>Los nombres de columnas del listado deben ser: CÓD. FUNCIÓN PCIA / CÓD. FUNCIÓN MGP / DESCRIPCIÓN / VIGENTE</t>
+  </si>
+  <si>
+    <t>La columna VIGENTE debe mostrar SI o NO (en vez de S o N)</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Tipos de Funciones &gt; Agregar</t>
+  </si>
+  <si>
+    <t>Las etiquetas de los campos deben ser: Cód. Función PCIA. (*) / Cód. Función MGP (*) / Descripción (*) .</t>
+  </si>
+  <si>
+    <t>Cuando no se completa algún campo obligatorio, en el cartel que sale debe mostrar los nombres de los campos tal como están en el formulario (por ejemplo si no se completa el campo "Cód. Función PCIA" muestra "codFuncion" actualmente y debería mostrar "Cód. Función PCIA")</t>
+  </si>
+  <si>
+    <t>El campo codFuncionMGP no debe ser obligatorio para dar de alta un registro</t>
+  </si>
+  <si>
+    <t>Quise dar de alta un registro con codFuncion P y me saltó error de que ya estaba registrado. En realidad es verdad que ya está registrado, pero está Vigente = N y al no visualizarse de ninguna manera los no vigentes es muy confuso para el usuario. Se necesita el filtro por estado (Todos / Activos / Inactivos)</t>
+  </si>
+  <si>
+    <t>Parametricas &gt; Tipos de Funciones &gt; Editar</t>
+  </si>
+  <si>
+    <t>Las etiquetas de los campos deben ser: Cód. Función PCIA. (*) / Cód. Función MGP (*) / Descripción (*) / Vigente (*).</t>
+  </si>
+  <si>
+    <t>La columna donde están los botones "Mas info" no debe tener las flechitas para ordenar</t>
+  </si>
+  <si>
+    <t>Quitar botón "Mas info" y poner botón "Editar"</t>
+  </si>
+  <si>
+    <t>Los nombres de columnas del listado deben ser: NRO. DIEGEP / TIPO ESTABLECIMIENTO / NOMBRE PCIA / NOMBRE MGP / VIGENTE</t>
+  </si>
+  <si>
+    <t>Paramétricas</t>
+  </si>
+  <si>
+    <t>Deseable que las etiquetas de menú sean:
+Conceptos
+Caracteres de Revista
+Tipos de Establecimientos
+Establecimientos
+Tipos de Funciones
+Tipos de Liquidaciones
+Tipos de Categorías</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,16 +336,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,7 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -363,7 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -375,13 +421,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="472">
     <dxf>
       <fill>
         <patternFill>
@@ -399,6 +454,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -490,6 +566,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -525,6 +622,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -560,6 +678,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -589,6 +728,2771 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -902,7 +3806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,9 +3838,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,6 +3873,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1143,30 +4049,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1175,9 +4081,9 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1186,7 +4092,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +4127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1244,7 +4150,7 @@
         <v>45593</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2">
         <v>45601</v>
@@ -1252,7 +4158,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1281,7 +4187,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1304,7 +4210,7 @@
         <v>45593</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2">
         <v>45601</v>
@@ -1312,7 +4218,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1341,7 +4247,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1364,7 +4270,7 @@
         <v>45593</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2">
         <v>45601</v>
@@ -1372,7 +4278,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1395,7 +4301,7 @@
         <v>45593</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2">
         <v>45601</v>
@@ -1403,7 +4309,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1424,7 +4330,7 @@
         <v>45593</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2">
         <v>45601</v>
@@ -1432,7 +4338,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1453,7 +4359,7 @@
         <v>45593</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2">
         <v>45601</v>
@@ -1461,7 +4367,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1490,7 +4396,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1511,7 +4417,7 @@
         <v>45593</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2">
         <v>45601</v>
@@ -1519,7 +4425,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1542,7 +4448,7 @@
         <v>45593</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2">
         <v>45601</v>
@@ -1550,35 +4456,51 @@
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
+    <row r="15" spans="1:11" s="15" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -1599,7 +4521,7 @@
         <v>45593</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I17" s="6">
         <v>45604</v>
@@ -1607,15 +4529,15 @@
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1">
+    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1636,15 +4558,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>69</v>
+      <c r="C19" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1665,15 +4587,15 @@
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1694,15 +4616,15 @@
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1723,12 +4645,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
@@ -1746,7 +4668,7 @@
         <v>45593</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I22" s="6">
         <v>45604</v>
@@ -1754,12 +4676,12 @@
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
@@ -1783,15 +4705,15 @@
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1812,12 +4734,12 @@
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
@@ -1835,7 +4757,7 @@
         <v>45593</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I25" s="6">
         <v>45604</v>
@@ -1843,15 +4765,15 @@
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="27.75" customHeight="1">
+    <row r="26" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -1872,15 +4794,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1901,22 +4823,22 @@
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11">
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>39</v>
@@ -1937,7 +4859,7 @@
         <v>45593</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I29" s="6">
         <v>45604</v>
@@ -1945,15 +4867,15 @@
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="28.5" customHeight="1">
+    <row r="30" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>77</v>
+      <c r="C30" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
@@ -1974,15 +4896,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>69</v>
+      <c r="C31" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2003,9 +4925,9 @@
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>40</v>
@@ -2032,9 +4954,9 @@
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>27</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>40</v>
@@ -2055,7 +4977,7 @@
         <v>45593</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I33" s="6">
         <v>45604</v>
@@ -2063,15 +4985,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
-        <v>28</v>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2092,28 +5014,28 @@
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="28.5" customHeight="1">
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>80</v>
+      <c r="C36" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -2134,14 +5056,14 @@
       <c r="J36" s="1"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2157,7 +5079,7 @@
         <v>45594</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I37" s="6">
         <v>45604</v>
@@ -2165,15 +5087,15 @@
       <c r="J37" s="1"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -2194,9 +5116,9 @@
       <c r="J38" s="1"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -2217,7 +5139,7 @@
         <v>45594</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I39" s="6">
         <v>45604</v>
@@ -2225,9 +5147,9 @@
       <c r="J39" s="1"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -2254,9 +5176,9 @@
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
-        <v>32</v>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>44</v>
@@ -2277,7 +5199,7 @@
         <v>45594</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I41" s="6">
         <v>45604</v>
@@ -2285,40 +5207,40 @@
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45604</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>14</v>
@@ -2327,27 +5249,27 @@
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45604</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>14</v>
@@ -2356,40 +5278,56 @@
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>52</v>
+      <c r="C46" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G46" s="6">
+        <v>45604</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>14</v>
@@ -2398,27 +5336,27 @@
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1">
-        <v>36</v>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G47" s="6">
+        <v>45604</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>14</v>
@@ -2427,27 +5365,27 @@
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G48" s="6">
+        <v>45604</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>14</v>
@@ -2456,27 +5394,27 @@
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G49" s="6">
+        <v>45604</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>14</v>
@@ -2485,27 +5423,27 @@
       <c r="J49" s="1"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2">
-        <v>45594</v>
+        <v>61</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45604</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>14</v>
@@ -2514,26 +5452,28 @@
       <c r="J50" s="1"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" ht="30">
-      <c r="A52" s="3"/>
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
@@ -2542,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G52" s="6">
         <v>45604</v>
@@ -2554,22 +5494,24 @@
       <c r="J52" s="1"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="3"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>45</v>
+      </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G53" s="6">
         <v>45604</v>
@@ -2581,22 +5523,24 @@
       <c r="J53" s="1"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>46</v>
+      </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G54" s="6">
         <v>45604</v>
@@ -2604,17 +5548,16 @@
       <c r="H54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="30">
-      <c r="A55" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>47</v>
+      </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>12</v>
@@ -2623,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G55" s="6">
         <v>45604</v>
@@ -2631,17 +5574,16 @@
       <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" ht="30">
-      <c r="A56" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>48</v>
+      </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
@@ -2650,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G56" s="6">
         <v>45604</v>
@@ -2658,140 +5600,1292 @@
       <c r="H56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>49</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>52</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>53</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>54</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>55</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>56</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>57</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>58</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>59</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>60</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>61</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>62</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>63</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="6">
+        <v>45604</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D63">
-    <cfRule type="containsText" dxfId="12" priority="62" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="D4:D15 D36:D41 D17:D34">
+    <cfRule type="containsText" dxfId="239" priority="294" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="63" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="238" priority="295" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="64" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="237" priority="296" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E63">
-    <cfRule type="containsText" dxfId="9" priority="56" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="E4:E15 E36:E41 E17:E34">
+    <cfRule type="containsText" dxfId="236" priority="288" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="57" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="235" priority="289" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="58" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="234" priority="290" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H63">
-    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="RESUELTO">
+  <conditionalFormatting sqref="H4:H15 H36:H41 H17:H34">
+    <cfRule type="containsText" dxfId="233" priority="283" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="52" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="232" priority="284" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="231" priority="230" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="231" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="232" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="containsText" dxfId="228" priority="227" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="227" priority="228" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="229" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="225" priority="225" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="224" priority="226" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="containsText" dxfId="223" priority="222" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="223" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="224" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" dxfId="220" priority="219" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="220" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="221" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="containsText" dxfId="217" priority="217" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="218" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D49 D43">
+    <cfRule type="containsText" dxfId="215" priority="214" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="216" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E49 E43">
+    <cfRule type="containsText" dxfId="212" priority="211" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="212" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="213" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H49 H43">
+    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="containsText" dxfId="207" priority="206" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="207" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="208" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" dxfId="204" priority="203" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="204" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="205" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="199" priority="198" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="199" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="196" priority="195" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="196" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="197" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="containsText" dxfId="193" priority="193" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="194" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="188" priority="187" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="188" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="189" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="183" priority="182" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="183" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="184" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="180" priority="179" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="180" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="181" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="175" priority="174" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="175" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="176" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="172" priority="171" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="172" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="173" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" dxfId="164" priority="163" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="165" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="159" priority="158" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="160" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="156" priority="155" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="156" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="157" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="151" priority="150" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="151" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="148" priority="147" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="143" priority="142" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="135" priority="134" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" dxfId="132" priority="131" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="124" priority="123" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="containsText" dxfId="119" priority="118" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="111" priority="110" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:E73 D4:E67 D69:E69">
       <formula1>"ALTA,MEDIA,BAJA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F63 J4:J63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F70:F73 J4:J53 F4:F67 J59 F69 J69">
       <formula1>"vuriarte,gabrielalopez,gcassulo,efrontera"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70:H73 H4:H67 H69">
       <formula1>"ABIERTO,RESUELTO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2801,12 +6895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -312,8 +312,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,1687 +436,7 @@
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="472">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="232">
     <dxf>
       <fill>
         <patternFill>
@@ -3806,7 +2126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3838,10 +2158,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3873,7 +2192,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4049,28 +2367,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -4081,7 +2399,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
@@ -4092,7 +2410,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4127,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4158,7 +2476,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4181,13 +2499,13 @@
         <v>45593</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4218,7 +2536,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4241,13 +2559,13 @@
         <v>45593</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4278,7 +2596,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4309,7 +2627,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4338,7 +2656,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -4367,7 +2685,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4390,13 +2708,13 @@
         <v>45593</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4425,7 +2743,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4456,7 +2774,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="15" customFormat="1" ht="10.15" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4469,7 +2787,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="120">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -4492,13 +2810,13 @@
         <v>45604</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -4529,7 +2847,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="27.75" customHeight="1">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -4552,13 +2870,13 @@
         <v>45604</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -4581,13 +2899,13 @@
         <v>45604</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -4610,13 +2928,13 @@
         <v>45604</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -4639,13 +2957,13 @@
         <v>45604</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -4676,7 +2994,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -4699,13 +3017,13 @@
         <v>45604</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -4728,13 +3046,13 @@
         <v>45604</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -4765,7 +3083,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="27.75" customHeight="1">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -4788,13 +3106,13 @@
         <v>45604</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -4817,13 +3135,13 @@
         <v>45604</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4836,7 +3154,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -4867,7 +3185,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="28.5" customHeight="1">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -4890,13 +3208,13 @@
         <v>45604</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -4919,13 +3237,13 @@
         <v>45604</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -4948,13 +3266,13 @@
         <v>45593</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -4985,7 +3303,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -5008,13 +3326,13 @@
         <v>45604</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5027,7 +3345,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="28.5" customHeight="1">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -5050,13 +3368,13 @@
         <v>45608</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -5087,7 +3405,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -5110,13 +3428,13 @@
         <v>45604</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -5147,7 +3465,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>34</v>
       </c>
@@ -5170,13 +3488,13 @@
         <v>45594</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -5207,7 +3525,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5220,7 +3538,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="30">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -5243,13 +3561,13 @@
         <v>45604</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -5272,13 +3590,13 @@
         <v>45604</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -5301,13 +3619,13 @@
         <v>45604</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>39</v>
       </c>
@@ -5336,7 +3654,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>40</v>
       </c>
@@ -5359,13 +3677,13 @@
         <v>45604</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="3">
         <v>41</v>
       </c>
@@ -5388,13 +3706,13 @@
         <v>45604</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="30">
       <c r="A49" s="3">
         <v>42</v>
       </c>
@@ -5417,13 +3735,13 @@
         <v>45604</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30">
       <c r="A50" s="3">
         <v>43</v>
       </c>
@@ -5446,13 +3764,13 @@
         <v>45604</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5465,7 +3783,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>44</v>
       </c>
@@ -5494,7 +3812,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>45</v>
       </c>
@@ -5517,13 +3835,13 @@
         <v>45604</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>46</v>
       </c>
@@ -5546,10 +3864,10 @@
         <v>45604</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>47</v>
       </c>
@@ -5575,7 +3893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="60">
       <c r="A56" s="3">
         <v>48</v>
       </c>
@@ -5598,10 +3916,10 @@
         <v>45604</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3">
         <v>49</v>
       </c>
@@ -5624,10 +3942,10 @@
         <v>45604</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="3">
         <v>50</v>
       </c>
@@ -5650,10 +3968,10 @@
         <v>45604</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5666,7 +3984,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="3">
         <v>51</v>
       </c>
@@ -5692,7 +4010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="30">
       <c r="A61" s="3">
         <v>52</v>
       </c>
@@ -5715,10 +4033,10 @@
         <v>45604</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="3">
         <v>53</v>
       </c>
@@ -5741,10 +4059,10 @@
         <v>45604</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="3">
         <v>54</v>
       </c>
@@ -5767,10 +4085,10 @@
         <v>45604</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30">
       <c r="A64" s="3">
         <v>55</v>
       </c>
@@ -5793,10 +4111,10 @@
         <v>45604</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="60">
       <c r="A65" s="3">
         <v>56</v>
       </c>
@@ -5819,10 +4137,10 @@
         <v>45604</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="3">
         <v>57</v>
       </c>
@@ -5848,7 +4166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="60">
       <c r="A67" s="3">
         <v>58</v>
       </c>
@@ -5871,10 +4189,10 @@
         <v>45604</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="3">
         <v>59</v>
       </c>
@@ -5890,7 +4208,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5903,7 +4221,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="3">
         <v>60</v>
       </c>
@@ -5929,7 +4247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="3">
         <v>61</v>
       </c>
@@ -5952,10 +4270,10 @@
         <v>45604</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="3">
         <v>62</v>
       </c>
@@ -5978,10 +4296,10 @@
         <v>45604</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="3">
         <v>63</v>
       </c>
@@ -6004,877 +4322,877 @@
         <v>45604</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D15 D36:D41 D17:D34">
-    <cfRule type="containsText" dxfId="239" priority="294" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="231" priority="294" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="295" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="230" priority="295" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="296" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="229" priority="296" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E15 E36:E41 E17:E34">
-    <cfRule type="containsText" dxfId="236" priority="288" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="228" priority="288" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="289" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="227" priority="289" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="290" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="226" priority="290" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H36:H41 H17:H34">
-    <cfRule type="containsText" dxfId="233" priority="283" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="225" priority="283" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="284" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="224" priority="284" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="231" priority="230" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="223" priority="230" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="231" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="222" priority="231" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="232" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="221" priority="232" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="containsText" dxfId="228" priority="227" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="220" priority="227" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="228" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="219" priority="228" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="229" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="218" priority="229" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="225" priority="225" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="217" priority="225" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="226" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="216" priority="226" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="223" priority="222" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="215" priority="222" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="223" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="214" priority="223" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="224" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="213" priority="224" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="220" priority="219" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="212" priority="219" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="220" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="211" priority="220" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="221" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="210" priority="221" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="217" priority="217" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="209" priority="217" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="218" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="208" priority="218" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D49 D43">
-    <cfRule type="containsText" dxfId="215" priority="214" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="207" priority="214" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="206" priority="215" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="216" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="205" priority="216" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E49 E43">
-    <cfRule type="containsText" dxfId="212" priority="211" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="204" priority="211" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="212" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="203" priority="212" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="213" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="202" priority="213" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H49 H43">
-    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="201" priority="209" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="200" priority="210" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="207" priority="206" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="199" priority="206" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="207" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="198" priority="207" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="208" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="197" priority="208" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="204" priority="203" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="196" priority="203" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="204" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="195" priority="204" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="205" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="194" priority="205" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="192" priority="202" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="199" priority="198" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="191" priority="198" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="199" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="190" priority="199" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="189" priority="200" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="196" priority="195" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="188" priority="195" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="196" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="187" priority="196" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="197" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="186" priority="197" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="containsText" dxfId="193" priority="193" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="185" priority="193" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="194" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="184" priority="194" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="183" priority="190" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="182" priority="191" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="181" priority="192" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="188" priority="187" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="180" priority="187" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="188" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="179" priority="188" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="189" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="178" priority="189" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="177" priority="185" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="176" priority="186" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="183" priority="182" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="175" priority="182" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="183" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="174" priority="183" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="184" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="173" priority="184" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="180" priority="179" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="180" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="181" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="169" priority="177" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="168" priority="178" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="175" priority="174" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="167" priority="174" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="175" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="166" priority="175" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="176" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="165" priority="176" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="172" priority="171" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="164" priority="171" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="172" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="163" priority="172" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="173" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="162" priority="173" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="161" priority="169" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="160" priority="170" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="158" priority="167" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="157" priority="168" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="164" priority="163" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="156" priority="163" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="155" priority="164" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="165" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="154" priority="165" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="153" priority="161" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="152" priority="162" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="159" priority="158" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="151" priority="158" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="150" priority="159" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="160" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="149" priority="160" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="156" priority="155" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="148" priority="155" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="156" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="147" priority="156" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="157" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="146" priority="157" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="145" priority="153" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="144" priority="154" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="151" priority="150" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="143" priority="150" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="151" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="142" priority="151" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="148" priority="147" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="140" priority="147" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="139" priority="148" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="138" priority="149" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="137" priority="145" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="136" priority="146" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="143" priority="142" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="134" priority="143" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="133" priority="144" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="131" priority="140" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="130" priority="141" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="128" priority="138" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="135" priority="134" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="132" priority="131" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="123" priority="132" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="122" priority="133" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="121" priority="129" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="120" priority="130" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="118" priority="127" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="117" priority="128" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="124" priority="123" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="115" priority="124" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="114" priority="125" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="119" priority="118" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="110" priority="119" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="109" priority="120" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="107" priority="116" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="106" priority="117" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="111" priority="110" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="103" priority="110" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="102" priority="111" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="101" priority="112" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="100" priority="107" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="99" priority="108" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="98" priority="109" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="97" priority="105" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="96" priority="106" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="94" priority="103" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="93" priority="104" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="92" priority="99" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="91" priority="100" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="90" priority="101" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="89" priority="97" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="88" priority="98" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="87" priority="94" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="86" priority="95" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="85" priority="96" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="83" priority="92" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="82" priority="93" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="81" priority="89" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="80" priority="90" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="73" priority="81" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="72" priority="82" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="71" priority="78" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="70" priority="79" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="69" priority="80" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="68" priority="75" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="67" priority="76" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="64" priority="74" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="61" priority="72" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="60" priority="67" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="58" priority="69" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="57" priority="65" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="56" priority="66" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="53" priority="64" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="49" priority="57" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="48" priority="58" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="46" priority="55" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="45" priority="56" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="34" priority="45" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6895,12 +5213,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="116">
   <si>
     <t>ID Caso Prueba</t>
   </si>
@@ -307,6 +307,69 @@
 Tipos de Funciones
 Tipos de Liquidaciones
 Tipos de Categorías</t>
+  </si>
+  <si>
+    <t>Si ya existe el registro -Establecimien-Persona-Secuencia - se debe mostrar un mensaje, ya existe el cargo en la POF</t>
+  </si>
+  <si>
+    <t>Debe haber un boton de cancelar para volver al listado de la POF</t>
+  </si>
+  <si>
+    <t>los combos  Funcion  y  Tipo Cargo quedan raros, parece que el titulo se pisa</t>
+  </si>
+  <si>
+    <t>Secuencia debe ser numerica</t>
+  </si>
+  <si>
+    <t>Numero DOC  debe ser numerico</t>
+  </si>
+  <si>
+    <t>El numero de Documento debe tener 8 caracteres numericos</t>
+  </si>
+  <si>
+    <t>Si hay algun error mostrar el error, no puedo detectar que pasa, probe con un documento con menos caracteres</t>
+  </si>
+  <si>
+    <t>POF &gt; Gestion de Persona</t>
+  </si>
+  <si>
+    <t>Renombrar el menú a Gestión de Personas</t>
+  </si>
+  <si>
+    <t>POF &gt; Gestion de Persona &gt; Listado</t>
+  </si>
+  <si>
+    <t>Agregar columna VIGENTE, que muestre los valores SI o NO</t>
+  </si>
+  <si>
+    <t>Agregar filtro para mostrar en la grilla Todos, Vigente, No Vigente, ya que actualmente si se pone algun registro en No Vigente no hay forma de verlo</t>
+  </si>
+  <si>
+    <t>POF &gt; Gestion de Persona &gt; Agregar</t>
+  </si>
+  <si>
+    <t>Si el DNI ya existe en el mensaje que se visualiza cambiar la leyenda para que diga "El DNI ya se encuentra registrado" (en vez de Ya se encuentra registrado)</t>
+  </si>
+  <si>
+    <t>En el campo DNI no debe permitir poner letras. Por ejemplo puse 2267301a y me sale el error: Por favor complete los campos requeridos: dni</t>
+  </si>
+  <si>
+    <t>POF &gt; Gestion de Persona &gt; Editar</t>
+  </si>
+  <si>
+    <t>Si edito un registro y le modifico el campo DNI por un valor de DNI de otra persona que ya existe, me sale un mensaje "Hubo un error al procesar la solicitud". Debería decir que DNI ya existe para otra persona</t>
+  </si>
+  <si>
+    <t>POF - Planta Funcional - Agregar</t>
+  </si>
+  <si>
+    <t>POF - Planta Funcional - Agregar - Enviar Persona</t>
+  </si>
+  <si>
+    <t>POF - Planta Funcional - Listado</t>
+  </si>
+  <si>
+    <t>Combo Establecimiento debe mostrar el Nombre del Establecimiento Provincia</t>
   </si>
 </sst>
 </file>
@@ -396,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -431,12 +494,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="236">
     <dxf>
       <fill>
         <patternFill>
@@ -454,6 +525,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -475,6 +560,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -496,6 +602,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -510,6 +637,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -531,6 +672,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -552,6 +714,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1238,6 +1421,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -1630,27 +1848,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -1686,27 +1883,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -1736,83 +1912,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2368,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4325,885 +4424,804 @@
         <v>55</v>
       </c>
     </row>
+    <row r="74" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1">
+      <c r="A75"/>
+      <c r="B75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="19"/>
+    </row>
+    <row r="76" spans="1:11" ht="30">
+      <c r="B76" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="30">
+      <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G86" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45622</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D15 D36:D41 D17:D34">
-    <cfRule type="containsText" dxfId="231" priority="294" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="D4:D67 D69:D75">
+    <cfRule type="containsText" dxfId="127" priority="398" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="295" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="126" priority="399" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="296" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="125" priority="400" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E15 E36:E41 E17:E34">
-    <cfRule type="containsText" dxfId="228" priority="288" operator="containsText" text="Baja">
+  <conditionalFormatting sqref="E4:E67 E69:E75">
+    <cfRule type="containsText" dxfId="124" priority="392" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="289" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="123" priority="393" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="290" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="122" priority="394" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H15 H36:H41 H17:H34">
-    <cfRule type="containsText" dxfId="225" priority="283" operator="containsText" text="RESUELTO">
+  <conditionalFormatting sqref="H4:H67 H69:H75">
+    <cfRule type="containsText" dxfId="121" priority="387" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="284" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="120" priority="388" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="223" priority="230" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="231" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="232" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D35)))</formula>
+  <conditionalFormatting sqref="D76:D80">
+    <cfRule type="containsText" dxfId="119" priority="102" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="103" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="104" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="containsText" dxfId="220" priority="227" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="228" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="229" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E35)))</formula>
+  <conditionalFormatting sqref="E76:E80">
+    <cfRule type="containsText" dxfId="116" priority="99" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="100" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="101" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="217" priority="225" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="226" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H35)))</formula>
+  <conditionalFormatting sqref="H76:H80">
+    <cfRule type="containsText" dxfId="113" priority="97" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="98" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="215" priority="222" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="223" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="224" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D42)))</formula>
+  <conditionalFormatting sqref="D81">
+    <cfRule type="containsText" dxfId="111" priority="94" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="95" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="96" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D81)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="212" priority="219" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="220" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="221" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E42)))</formula>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="containsText" dxfId="108" priority="91" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="92" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="93" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E81)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="209" priority="217" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="218" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H42)))</formula>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H81)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D49 D43">
-    <cfRule type="containsText" dxfId="207" priority="214" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="215" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="216" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D43)))</formula>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="containsText" dxfId="103" priority="86" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="87" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="88" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E49 E43">
-    <cfRule type="containsText" dxfId="204" priority="211" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="212" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="213" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E43)))</formula>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="containsText" dxfId="100" priority="83" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H49 H43">
-    <cfRule type="containsText" dxfId="201" priority="209" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="210" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H43)))</formula>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="82" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="199" priority="206" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="207" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="208" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D44)))</formula>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="containsText" dxfId="95" priority="78" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="79" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="80" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="196" priority="203" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="204" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="205" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E44)))</formula>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="containsText" dxfId="92" priority="75" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="76" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="77" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="202" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H44)))</formula>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="191" priority="198" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="199" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="200" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D52)))</formula>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="containsText" dxfId="87" priority="70" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="71" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="72" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="188" priority="195" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="196" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="197" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E52)))</formula>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="containsText" dxfId="84" priority="67" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="containsText" dxfId="185" priority="193" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="194" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H52)))</formula>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="183" priority="190" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="191" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="192" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D53)))</formula>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="64" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="180" priority="187" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="188" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="189" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E53)))</formula>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="61" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="containsText" dxfId="177" priority="185" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="186" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H53)))</formula>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="58" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="175" priority="182" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="183" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="184" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D54)))</formula>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="56" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D87)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E54)))</formula>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" dxfId="68" priority="51" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="52" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="53" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E87)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" dxfId="169" priority="177" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="178" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H54)))</formula>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H87)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="167" priority="174" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="175" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="176" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D56)))</formula>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="48" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="164" priority="171" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="172" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="173" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E56)))</formula>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="45" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="containsText" dxfId="161" priority="169" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="170" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H56)))</formula>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="167" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="168" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D55)))</formula>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D85)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="156" priority="163" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="164" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="165" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E55)))</formula>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="containsText" dxfId="52" priority="35" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E85)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="153" priority="161" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="162" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H55)))</formula>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H85)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="151" priority="158" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="159" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="160" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D57)))</formula>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="148" priority="155" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="156" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="157" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E57)))</formula>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="28" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="29" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="145" priority="153" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="154" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H57)))</formula>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="143" priority="150" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="151" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D58)))</formula>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="24" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D88)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="140" priority="147" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="148" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="149" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E58)))</formula>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E88)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="137" priority="145" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="146" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H58)))</formula>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H88)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="143" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="144" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D60)))</formula>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="140" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="141" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E60)))</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="138" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H60)))</formula>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D61)))</formula>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="132" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="133" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E61)))</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",E75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",E75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="containsText" dxfId="121" priority="129" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="130" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="127" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="128" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="124" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="125" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="119" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="120" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="116" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="117" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="103" priority="110" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="111" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="112" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="100" priority="107" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="108" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="109" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="97" priority="105" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="106" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="103" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="104" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="92" priority="99" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="100" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="101" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="containsText" dxfId="89" priority="97" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="98" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="87" priority="94" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="95" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="96" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="92" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="93" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" dxfId="81" priority="89" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="90" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="73" priority="81" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="82" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="containsText" dxfId="71" priority="78" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="79" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="80" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="68" priority="75" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="76" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="74" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="72" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="60" priority="67" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="69" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="57" priority="65" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="66" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="64" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="49" priority="57" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="58" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="55" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="56" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="45" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",D69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",D69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",D69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Baja">
-      <formula>NOT(ISERROR(SEARCH("Baja",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",E69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="RESUELTO">
-      <formula>NOT(ISERROR(SEARCH("RESUELTO",H69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ABIERTO">
-      <formula>NOT(ISERROR(SEARCH("ABIERTO",H69)))</formula>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="RESUELTO">
+      <formula>NOT(ISERROR(SEARCH("RESUELTO",H75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ABIERTO">
+      <formula>NOT(ISERROR(SEARCH("ABIERTO",H75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:E73 D4:E67 D69:E69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E67 D69:E89">
       <formula1>"ALTA,MEDIA,BAJA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F70:F73 J4:J53 F4:F67 J59 F69 J69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69 J4:J53 J59 F4:F67 J74:J75 F69:F89">
       <formula1>"vuriarte,gabrielalopez,gcassulo,efrontera"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70:H73 H4:H67 H69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H67 H69:H89">
       <formula1>"ABIERTO,RESUELTO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -507,7 +507,7 @@
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="236">
+  <dxfs count="112">
     <dxf>
       <fill>
         <patternFill>
@@ -525,6 +525,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -560,6 +602,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -602,6 +679,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -637,6 +749,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -672,6 +826,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFDEA5A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0A5A4"/>
         </patternFill>
       </fill>
@@ -714,6 +903,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0A5A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDEA5A2"/>
         </patternFill>
       </fill>
@@ -820,1098 +1044,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0A5A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEA5A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2469,12 +1601,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D93" sqref="D92:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -4646,7 +3779,7 @@
         <v>45622</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4670,7 +3803,7 @@
         <v>45622</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30">
@@ -4694,7 +3827,7 @@
         <v>45622</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30">
@@ -4718,7 +3851,7 @@
         <v>45622</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4742,7 +3875,7 @@
         <v>45622</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30">
@@ -4766,7 +3899,7 @@
         <v>45622</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="45">
@@ -4790,427 +3923,427 @@
         <v>45622</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D67 D69:D75">
-    <cfRule type="containsText" dxfId="127" priority="398" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="111" priority="398" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="399" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="110" priority="399" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="400" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="109" priority="400" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E67 E69:E75">
-    <cfRule type="containsText" dxfId="124" priority="392" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="108" priority="392" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="393" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="107" priority="393" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="394" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="106" priority="394" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H67 H69:H75">
-    <cfRule type="containsText" dxfId="121" priority="387" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="105" priority="387" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="388" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="104" priority="388" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D80">
-    <cfRule type="containsText" dxfId="119" priority="102" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="103" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="104" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:E80">
-    <cfRule type="containsText" dxfId="116" priority="99" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="100" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="101" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H80">
-    <cfRule type="containsText" dxfId="113" priority="97" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="98" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="containsText" dxfId="111" priority="94" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="95" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="96" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="containsText" dxfId="108" priority="91" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="92" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="93" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="containsText" dxfId="103" priority="86" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="87" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="88" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" dxfId="100" priority="83" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="82" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="95" priority="78" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="79" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="80" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="92" priority="75" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="76" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="77" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="87" priority="70" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="71" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="72" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="84" priority="67" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="64" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="61" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="58" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="56" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" dxfId="68" priority="51" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="52" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="53" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="48" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="45" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" dxfId="52" priority="35" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="28" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="29" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="24" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Baja">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Baja">
       <formula>NOT(ISERROR(SEARCH("Baja",E75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",E75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Alta">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH("Alta",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="RESUELTO">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="RESUELTO">
       <formula>NOT(ISERROR(SEARCH("RESUELTO",H75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ABIERTO">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ABIERTO">
       <formula>NOT(ISERROR(SEARCH("ABIERTO",H75)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentacion/Testing/1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/1-MEC_TestingHito1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -375,8 +375,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +395,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -501,6 +509,9 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,7 +1368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,9 +1400,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1423,6 +1435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1598,14 +1611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D93" sqref="D92:D93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
@@ -1620,7 +1633,7 @@
     <col min="11" max="11" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1644,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
@@ -1642,7 +1655,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1708,7 +1721,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1737,7 +1750,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1768,7 +1781,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1797,7 +1810,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1828,7 +1841,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1859,7 +1872,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1888,7 +1901,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1917,7 +1930,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1946,7 +1959,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1975,7 +1988,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2006,7 +2019,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" ht="10.15" customHeight="1">
+    <row r="15" spans="1:11" s="15" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2019,7 +2032,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="120">
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2048,7 +2061,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2079,7 +2092,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1">
+    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2108,7 +2121,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2137,7 +2150,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2166,7 +2179,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2195,7 +2208,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2226,7 +2239,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2255,7 +2268,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2284,7 +2297,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2315,7 +2328,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="27.75" customHeight="1">
+    <row r="26" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2344,7 +2357,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2373,7 +2386,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2386,7 +2399,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -2417,7 +2430,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="28.5" customHeight="1">
+    <row r="30" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -2446,7 +2459,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -2475,7 +2488,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -2504,7 +2517,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -2535,7 +2548,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -2564,7 +2577,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2577,7 +2590,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="28.5" customHeight="1">
+    <row r="36" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -2606,7 +2619,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -2637,7 +2650,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -2666,7 +2679,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -2697,7 +2710,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>34</v>
       </c>
@@ -2726,7 +2739,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -2757,7 +2770,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2770,7 +2783,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="30">
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -2799,7 +2812,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -2828,7 +2841,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -2857,7 +2870,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>39</v>
       </c>
@@ -2886,7 +2899,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>40</v>
       </c>
@@ -2915,7 +2928,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="30">
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41</v>
       </c>
@@ -2944,7 +2957,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="30">
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42</v>
       </c>
@@ -2973,7 +2986,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43</v>
       </c>
@@ -3002,7 +3015,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3015,7 +3028,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44</v>
       </c>
@@ -3044,7 +3057,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>45</v>
       </c>
@@ -3073,7 +3086,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>46</v>
       </c>
@@ -3099,7 +3112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>47</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="60">
+    <row r="56" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>48</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>49</v>
       </c>
@@ -3177,7 +3190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>50</v>
       </c>
@@ -3203,7 +3216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3216,7 +3229,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>51</v>
       </c>
@@ -3242,7 +3255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>52</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>53</v>
       </c>
@@ -3294,7 +3307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>54</v>
       </c>
@@ -3320,7 +3333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>55</v>
       </c>
@@ -3346,7 +3359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="60">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>56</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>57</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="60">
+    <row r="67" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>58</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>59</v>
       </c>
@@ -3440,7 +3453,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="69" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3453,7 +3466,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>60</v>
       </c>
@@ -3479,7 +3492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>61</v>
       </c>
@@ -3505,7 +3518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>62</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>63</v>
       </c>
@@ -3557,7 +3570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1">
+    <row r="74" spans="1:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3570,7 +3583,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1">
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="3" t="s">
         <v>114</v>
@@ -3591,13 +3604,13 @@
         <v>45622</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="21"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>112</v>
       </c>
@@ -3617,10 +3630,10 @@
         <v>45622</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>112</v>
       </c>
@@ -3640,14 +3653,14 @@
         <v>45622</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3666,7 +3679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>112</v>
       </c>
@@ -3689,7 +3702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>113</v>
       </c>
@@ -3712,7 +3725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>112</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>112</v>
       </c>
@@ -3758,7 +3771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>102</v>
@@ -3782,7 +3795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>104</v>
@@ -3806,7 +3819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30">
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>104</v>
@@ -3830,7 +3843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>107</v>
@@ -3854,7 +3867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>107</v>
@@ -3878,7 +3891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
@@ -3902,7 +3915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>110</v>
@@ -4364,12 +4377,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
